--- a/data/158/COJ/old/s11n_en.xlsx
+++ b/data/158/COJ/old/s11n_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="4250" windowWidth="28850" windowHeight="4250"/>
+    <workbookView xWindow="5430" yWindow="4245" windowWidth="28845" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="F.Year" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">F.Year!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Quarter!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="19">
   <si>
     <t>(At current prices)</t>
   </si>
@@ -704,29 +704,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="69" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.3984375" customWidth="1"/>
+    <col min="2" max="70" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -734,8 +734,9 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -748,7 +749,7 @@
       <c r="H4" s="7"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -775,9 +776,10 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
@@ -856,11 +858,14 @@
       <c r="Z6" s="6">
         <v>2018</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB6" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -887,9 +892,10 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
@@ -963,16 +969,19 @@
         <v>21903.1</v>
       </c>
       <c r="Y8" s="19">
-        <v>22585.9</v>
+        <v>22593.9</v>
       </c>
       <c r="Z8" s="19">
-        <v>22835.7</v>
-      </c>
-      <c r="AA8" s="29">
-        <v>22917.599999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>22846.3</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>22744</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>22147.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
@@ -1046,16 +1055,19 @@
         <v>16061.3</v>
       </c>
       <c r="Y9" s="19">
-        <v>16556.900000000001</v>
+        <v>16582.3</v>
       </c>
       <c r="Z9" s="19">
-        <v>16936.7</v>
-      </c>
-      <c r="AA9" s="30">
-        <v>16532.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>17030.7</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>16686.400000000001</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>15992.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -1129,16 +1141,19 @@
         <v>81079.600000000006</v>
       </c>
       <c r="Y10" s="19">
-        <v>83237.5</v>
+        <v>83210.8</v>
       </c>
       <c r="Z10" s="19">
-        <v>83550.5</v>
-      </c>
-      <c r="AA10" s="30">
-        <v>83310.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>83476.899999999994</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>83171.8</v>
+      </c>
+      <c r="AB10" s="30">
+        <v>80687.399999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
@@ -1212,16 +1227,19 @@
         <v>173260.6</v>
       </c>
       <c r="Y11" s="19">
-        <v>175216.1</v>
+        <v>175171.1</v>
       </c>
       <c r="Z11" s="19">
-        <v>177460.8</v>
-      </c>
-      <c r="AA11" s="30">
-        <v>176383.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>177160.6</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>175923.1</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>159234.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1248,9 +1266,10 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
@@ -1324,16 +1343,19 @@
         <v>292304.59999999998</v>
       </c>
       <c r="Y13" s="19">
-        <v>297596.40000000002</v>
+        <v>297558.2</v>
       </c>
       <c r="Z13" s="19">
-        <v>300783.7</v>
-      </c>
-      <c r="AA13" s="30">
-        <v>299145.09999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>300514.59999999998</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>298525.3</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>278062.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1360,9 +1382,10 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
@@ -1439,13 +1462,16 @@
         <v>1733.7</v>
       </c>
       <c r="Z15" s="19">
-        <v>1894.6</v>
-      </c>
-      <c r="AA15" s="30">
-        <v>1802.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>1894.2</v>
+      </c>
+      <c r="AA15" s="19">
+        <v>1805.2</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>275.39999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>11</v>
       </c>
@@ -1522,13 +1548,16 @@
         <v>3738.9</v>
       </c>
       <c r="Z16" s="19">
-        <v>4330</v>
-      </c>
-      <c r="AA16" s="30">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>4330.3999999999996</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>4128.6000000000004</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>510.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1602,16 +1631,19 @@
         <v>290941.3</v>
       </c>
       <c r="Y17" s="21">
-        <v>295591.2</v>
+        <v>295553</v>
       </c>
       <c r="Z17" s="21">
-        <v>298348.2</v>
-      </c>
-      <c r="AA17" s="31">
-        <v>296818.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>298078.40000000002</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>296201.8</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>277827.09999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1623,7 +1655,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1635,7 +1667,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1646,7 +1678,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1657,7 +1689,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1668,7 +1700,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1679,7 +1711,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1690,7 +1722,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1701,7 +1733,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1726,29 +1758,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
-    <col min="2" max="73" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.3984375" customWidth="1"/>
+    <col min="2" max="74" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18"/>
     </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
@@ -1756,8 +1788,9 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -1770,7 +1803,7 @@
       <c r="H4" s="7"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1797,9 +1830,10 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
@@ -1878,11 +1912,14 @@
       <c r="Z6" s="6">
         <v>2018</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB6" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1909,9 +1946,10 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
@@ -1988,13 +2026,16 @@
         <v>22565.200000000001</v>
       </c>
       <c r="Z8" s="19">
-        <v>22763.4</v>
-      </c>
-      <c r="AA8" s="29">
-        <v>23204.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>22803.5</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>23027.200000000001</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>21759.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
@@ -2071,13 +2112,16 @@
         <v>16526.5</v>
       </c>
       <c r="Z9" s="19">
-        <v>16922.099999999999</v>
-      </c>
-      <c r="AA9" s="30">
-        <v>16723.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>17021</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>16846.099999999999</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>16117.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -2154,13 +2198,16 @@
         <v>82460.5</v>
       </c>
       <c r="Z10" s="19">
-        <v>83837.8</v>
-      </c>
-      <c r="AA10" s="30">
-        <v>83379.100000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>83801.899999999994</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>83016</v>
+      </c>
+      <c r="AB10" s="30">
+        <v>81235.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
@@ -2237,13 +2284,16 @@
         <v>174826.8</v>
       </c>
       <c r="Z11" s="19">
-        <v>176983.3</v>
-      </c>
-      <c r="AA11" s="30">
-        <v>177707.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>176749.3</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>177110.7</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>162239.29999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2270,9 +2320,10 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="30"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
@@ -2349,13 +2400,16 @@
         <v>296379.09999999998</v>
       </c>
       <c r="Z13" s="19">
-        <v>300506.7</v>
-      </c>
-      <c r="AA13" s="30">
-        <v>301014.90000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>300375.8</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>299999.90000000002</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>281352.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -2382,9 +2436,10 @@
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="30"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
@@ -2463,11 +2518,14 @@
       <c r="Z15" s="19">
         <v>1854.5</v>
       </c>
-      <c r="AA15" s="30">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA15" s="19">
+        <v>1961.3</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>529.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>11</v>
       </c>
@@ -2546,11 +2604,14 @@
       <c r="Z16" s="19">
         <v>4265.7</v>
       </c>
-      <c r="AA16" s="30">
-        <v>4571.8999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA16" s="19">
+        <v>4571.6000000000004</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>1039.4000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
@@ -2627,13 +2688,16 @@
         <v>294588.2</v>
       </c>
       <c r="Z17" s="21">
-        <v>298095.5</v>
-      </c>
-      <c r="AA17" s="31">
-        <v>298405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>297964.59999999998</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>297389.59999999998</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>280843.09999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2645,7 +2709,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2657,7 +2721,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2668,7 +2732,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2679,7 +2743,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2690,7 +2754,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2701,7 +2765,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2712,7 +2776,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2723,7 +2787,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2748,37 +2812,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:DB19"/>
+  <dimension ref="A1:DF19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" style="3" customWidth="1"/>
-    <col min="2" max="186" width="15.5703125" style="3" customWidth="1"/>
-    <col min="187" max="16384" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="63.3984375" style="3" customWidth="1"/>
+    <col min="2" max="190" width="15.59765625" style="3" customWidth="1"/>
+    <col min="191" max="16384" width="8.59765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18"/>
       <c r="CQ2" s="13"/>
     </row>
-    <row r="3" spans="1:106" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:110" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="4" spans="1:106" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:110" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -2820,7 +2884,7 @@
       <c r="AK4" s="16"/>
       <c r="AL4" s="16"/>
     </row>
-    <row r="5" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="5">
         <v>1994</v>
@@ -3134,11 +3198,23 @@
       <c r="DA5" s="5">
         <v>2019</v>
       </c>
-      <c r="DB5" s="9">
+      <c r="DB5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DD5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DE5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="DF5" s="9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
@@ -3246,9 +3322,13 @@
       <c r="CY6" s="6"/>
       <c r="CZ6" s="6"/>
       <c r="DA6" s="6"/>
-      <c r="DB6" s="10"/>
-    </row>
-    <row r="7" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB6" s="6"/>
+      <c r="DC6" s="6"/>
+      <c r="DD6" s="6"/>
+      <c r="DE6" s="6"/>
+      <c r="DF6" s="10"/>
+    </row>
+    <row r="7" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>15</v>
@@ -3562,11 +3642,23 @@
       <c r="DA7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="DB7" s="11" t="s">
+      <c r="DB7" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DC7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="DD7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="DE7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="DF7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
@@ -3859,34 +3951,46 @@
         <v>5937.3</v>
       </c>
       <c r="CT8" s="19">
-        <v>5910.3</v>
+        <v>5918.3</v>
       </c>
       <c r="CU8" s="19">
-        <v>5255.6</v>
+        <v>5266</v>
       </c>
       <c r="CV8" s="19">
-        <v>5544.5</v>
+        <v>5554.5</v>
       </c>
       <c r="CW8" s="19">
-        <v>6053.1</v>
+        <v>6064.7</v>
       </c>
       <c r="CX8" s="19">
-        <v>5982.5</v>
+        <v>5961.1</v>
       </c>
       <c r="CY8" s="19">
-        <v>5612.9</v>
+        <v>5570.3</v>
       </c>
       <c r="CZ8" s="19">
-        <v>6093.9</v>
+        <v>6030.8</v>
       </c>
       <c r="DA8" s="19">
-        <v>5514.8</v>
-      </c>
-      <c r="DB8" s="29">
-        <v>5696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>5465</v>
+      </c>
+      <c r="DB8" s="19">
+        <v>5677.9</v>
+      </c>
+      <c r="DC8" s="19">
+        <v>4689.3</v>
+      </c>
+      <c r="DD8" s="19">
+        <v>5332.8</v>
+      </c>
+      <c r="DE8" s="19">
+        <v>6059.9</v>
+      </c>
+      <c r="DF8" s="29">
+        <v>6065.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>6</v>
       </c>
@@ -4179,34 +4283,46 @@
         <v>4355.5</v>
       </c>
       <c r="CT9" s="19">
-        <v>4371.2</v>
+        <v>4396.7</v>
       </c>
       <c r="CU9" s="19">
-        <v>3857.1</v>
+        <v>3882.5</v>
       </c>
       <c r="CV9" s="19">
-        <v>4102.1000000000004</v>
+        <v>4128</v>
       </c>
       <c r="CW9" s="19">
-        <v>4591.7</v>
+        <v>4613.8</v>
       </c>
       <c r="CX9" s="19">
-        <v>4385.8</v>
+        <v>4406.3999999999996</v>
       </c>
       <c r="CY9" s="19">
-        <v>3848.3</v>
+        <v>3867</v>
       </c>
       <c r="CZ9" s="19">
-        <v>4192.6000000000004</v>
+        <v>4221.3999999999996</v>
       </c>
       <c r="DA9" s="19">
-        <v>4297.2</v>
-      </c>
-      <c r="DB9" s="30">
-        <v>4194.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>4351.3</v>
+      </c>
+      <c r="DB9" s="19">
+        <v>4246.7</v>
+      </c>
+      <c r="DC9" s="19">
+        <v>3693.4</v>
+      </c>
+      <c r="DD9" s="19">
+        <v>3896.6</v>
+      </c>
+      <c r="DE9" s="19">
+        <v>4281.3999999999996</v>
+      </c>
+      <c r="DF9" s="30">
+        <v>4121.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
@@ -4499,34 +4615,46 @@
         <v>21567.200000000001</v>
       </c>
       <c r="CT10" s="19">
-        <v>20809.099999999999</v>
+        <v>20782.5</v>
       </c>
       <c r="CU10" s="19">
-        <v>20672.3</v>
+        <v>20666.400000000001</v>
       </c>
       <c r="CV10" s="19">
-        <v>20994</v>
+        <v>20994.2</v>
       </c>
       <c r="CW10" s="19">
-        <v>21362.400000000001</v>
+        <v>21358.9</v>
       </c>
       <c r="CX10" s="19">
-        <v>20521.900000000001</v>
+        <v>20457.400000000001</v>
       </c>
       <c r="CY10" s="19">
-        <v>20856.400000000001</v>
+        <v>20800.900000000001</v>
       </c>
       <c r="CZ10" s="19">
-        <v>20882.400000000001</v>
+        <v>20808.400000000001</v>
       </c>
       <c r="DA10" s="19">
-        <v>21118.400000000001</v>
-      </c>
-      <c r="DB10" s="30">
-        <v>20453.599999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>20949.2</v>
+      </c>
+      <c r="DB10" s="19">
+        <v>20613.3</v>
+      </c>
+      <c r="DC10" s="19">
+        <v>19785.400000000001</v>
+      </c>
+      <c r="DD10" s="19">
+        <v>20247</v>
+      </c>
+      <c r="DE10" s="19">
+        <v>20589.900000000001</v>
+      </c>
+      <c r="DF10" s="30">
+        <v>20065.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
@@ -4819,34 +4947,46 @@
         <v>44196.7</v>
       </c>
       <c r="CT11" s="19">
-        <v>43542.8</v>
+        <v>43497.8</v>
       </c>
       <c r="CU11" s="19">
-        <v>44357.1</v>
+        <v>44305.3</v>
       </c>
       <c r="CV11" s="19">
-        <v>44162.1</v>
+        <v>44099.5</v>
       </c>
       <c r="CW11" s="19">
-        <v>44921.3</v>
+        <v>44846.7</v>
       </c>
       <c r="CX11" s="19">
-        <v>44020.2</v>
+        <v>43909.1</v>
       </c>
       <c r="CY11" s="19">
-        <v>44530.1</v>
+        <v>44326.5</v>
       </c>
       <c r="CZ11" s="19">
-        <v>44489.3</v>
+        <v>44294.3</v>
       </c>
       <c r="DA11" s="19">
-        <v>44668.3</v>
-      </c>
-      <c r="DB11" s="30">
-        <v>42696.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>44580.7</v>
+      </c>
+      <c r="DB11" s="19">
+        <v>42721.599999999999</v>
+      </c>
+      <c r="DC11" s="19">
+        <v>37564.9</v>
+      </c>
+      <c r="DD11" s="19">
+        <v>40129.5</v>
+      </c>
+      <c r="DE11" s="19">
+        <v>41823.300000000003</v>
+      </c>
+      <c r="DF11" s="30">
+        <v>39717.199999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4952,9 +5092,13 @@
       <c r="CY12" s="19"/>
       <c r="CZ12" s="19"/>
       <c r="DA12" s="19"/>
-      <c r="DB12" s="30"/>
-    </row>
-    <row r="13" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB12" s="19"/>
+      <c r="DC12" s="19"/>
+      <c r="DD12" s="19"/>
+      <c r="DE12" s="19"/>
+      <c r="DF12" s="30"/>
+    </row>
+    <row r="13" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>9</v>
       </c>
@@ -5247,34 +5391,46 @@
         <v>76056.7</v>
       </c>
       <c r="CT13" s="19">
-        <v>74633.399999999994</v>
+        <v>74595.199999999997</v>
       </c>
       <c r="CU13" s="19">
-        <v>74142.2</v>
+        <v>74120.100000000006</v>
       </c>
       <c r="CV13" s="19">
-        <v>74802.7</v>
+        <v>74776.2</v>
       </c>
       <c r="CW13" s="19">
-        <v>76928.399999999994</v>
+        <v>76884.2</v>
       </c>
       <c r="CX13" s="19">
-        <v>74910.399999999994</v>
+        <v>74734</v>
       </c>
       <c r="CY13" s="19">
-        <v>74847.7</v>
+        <v>74564.800000000003</v>
       </c>
       <c r="CZ13" s="19">
-        <v>75658.2</v>
+        <v>75354.899999999994</v>
       </c>
       <c r="DA13" s="19">
-        <v>75598.600000000006</v>
-      </c>
-      <c r="DB13" s="30">
-        <v>73040.600000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>75346.2</v>
+      </c>
+      <c r="DB13" s="19">
+        <v>73259.399999999994</v>
+      </c>
+      <c r="DC13" s="19">
+        <v>65732.899999999994</v>
+      </c>
+      <c r="DD13" s="19">
+        <v>69605.8</v>
+      </c>
+      <c r="DE13" s="19">
+        <v>72754.399999999994</v>
+      </c>
+      <c r="DF13" s="30">
+        <v>69969.100000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5380,9 +5536,13 @@
       <c r="CY14" s="19"/>
       <c r="CZ14" s="19"/>
       <c r="DA14" s="19"/>
-      <c r="DB14" s="30"/>
-    </row>
-    <row r="15" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="DB14" s="19"/>
+      <c r="DC14" s="19"/>
+      <c r="DD14" s="19"/>
+      <c r="DE14" s="19"/>
+      <c r="DF14" s="30"/>
+    </row>
+    <row r="15" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
@@ -5687,22 +5847,34 @@
         <v>483.7</v>
       </c>
       <c r="CX15" s="19">
-        <v>482</v>
+        <v>481.6</v>
       </c>
       <c r="CY15" s="19">
-        <v>452.7</v>
+        <v>453.4</v>
       </c>
       <c r="CZ15" s="19">
-        <v>535.6</v>
+        <v>534.9</v>
       </c>
       <c r="DA15" s="19">
-        <v>491.8</v>
-      </c>
-      <c r="DB15" s="30">
-        <v>322.10000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>491.4</v>
+      </c>
+      <c r="DB15" s="19">
+        <v>325.5</v>
+      </c>
+      <c r="DC15" s="19">
+        <v>63.2</v>
+      </c>
+      <c r="DD15" s="19">
+        <v>69.5</v>
+      </c>
+      <c r="DE15" s="19">
+        <v>71.7</v>
+      </c>
+      <c r="DF15" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>11</v>
       </c>
@@ -6007,22 +6179,34 @@
         <v>1122.0999999999999</v>
       </c>
       <c r="CX16" s="19">
-        <v>1090.5</v>
+        <v>1090.9000000000001</v>
       </c>
       <c r="CY16" s="19">
-        <v>1232.0999999999999</v>
+        <v>1232.3</v>
       </c>
       <c r="CZ16" s="19">
-        <v>1082.3</v>
+        <v>1082</v>
       </c>
       <c r="DA16" s="19">
-        <v>1167</v>
-      </c>
-      <c r="DB16" s="30">
-        <v>647.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:106" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>1166.4000000000001</v>
+      </c>
+      <c r="DB16" s="19">
+        <v>647.9</v>
+      </c>
+      <c r="DC16" s="19">
+        <v>129.4</v>
+      </c>
+      <c r="DD16" s="19">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="DE16" s="19">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="DF16" s="30">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:110" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
@@ -6315,34 +6499,46 @@
         <v>75556.5</v>
       </c>
       <c r="CT17" s="21">
-        <v>74049.2</v>
+        <v>74011</v>
       </c>
       <c r="CU17" s="21">
-        <v>73450</v>
+        <v>73427.899999999994</v>
       </c>
       <c r="CV17" s="21">
-        <v>74306.399999999994</v>
+        <v>74279.899999999994</v>
       </c>
       <c r="CW17" s="21">
-        <v>76290</v>
+        <v>76245.8</v>
       </c>
       <c r="CX17" s="21">
-        <v>74301.899999999994</v>
+        <v>74124.7</v>
       </c>
       <c r="CY17" s="21">
-        <v>74068.2</v>
+        <v>73785.899999999994</v>
       </c>
       <c r="CZ17" s="21">
-        <v>75111.5</v>
+        <v>74807.7</v>
       </c>
       <c r="DA17" s="21">
-        <v>74923.399999999994</v>
-      </c>
-      <c r="DB17" s="31">
-        <v>72715.100000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:106" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74671.199999999997</v>
+      </c>
+      <c r="DB17" s="21">
+        <v>72937</v>
+      </c>
+      <c r="DC17" s="21">
+        <v>65666.7</v>
+      </c>
+      <c r="DD17" s="21">
+        <v>69545</v>
+      </c>
+      <c r="DE17" s="21">
+        <v>72694.399999999994</v>
+      </c>
+      <c r="DF17" s="31">
+        <v>69921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:110" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6377,7 +6573,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
     </row>
   </sheetData>
